--- a/Sorption Experiments/RaPYR_pH5/RaPYR_pH5 Equilibrated Data.xlsx
+++ b/Sorption Experiments/RaPYR_pH5/RaPYR_pH5 Equilibrated Data.xlsx
@@ -450,10 +450,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.63222222222222</v>
+        <v>1.629</v>
       </c>
       <c r="C2">
-        <v>0.104353407407407</v>
+        <v>0.10422342</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -461,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.345</v>
+        <v>1.32366666666667</v>
       </c>
       <c r="C3">
-        <v>0.094688</v>
+        <v>0.09395386</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -472,10 +472,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.43611111111111</v>
+        <v>1.45466666666667</v>
       </c>
       <c r="C4">
-        <v>0.0978949074074074</v>
+        <v>0.0985100266666667</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -483,10 +483,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4.48888888888889</v>
+        <v>4.54333333333333</v>
       </c>
       <c r="C5">
-        <v>0.172971851851852</v>
+        <v>0.174100533333333</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -494,10 +494,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4.66944444444444</v>
+        <v>4.65733333333333</v>
       </c>
       <c r="C6">
-        <v>0.176505</v>
+        <v>0.17632664</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -505,10 +505,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>4.83166666666667</v>
+        <v>4.833</v>
       </c>
       <c r="C7">
-        <v>0.179576944444444</v>
+        <v>0.17959428</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -516,10 +516,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>18.9511111111111</v>
+        <v>18.8603333333333</v>
       </c>
       <c r="C8">
-        <v>0.355017481481481</v>
+        <v>0.35419706</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -527,10 +527,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>18.9811111111111</v>
+        <v>18.986</v>
       </c>
       <c r="C9">
-        <v>0.355579481481481</v>
+        <v>0.35579764</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -538,10 +538,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>19.5416666666667</v>
+        <v>19.246</v>
       </c>
       <c r="C10">
-        <v>0.360869444444445</v>
+        <v>0.3579756</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -549,10 +549,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>36.8305555555556</v>
+        <v>37.1543333333333</v>
       </c>
       <c r="C11">
-        <v>0.49475712962963</v>
+        <v>0.497868066666667</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -560,10 +560,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>36.7233333333333</v>
+        <v>37.1336666666667</v>
       </c>
       <c r="C12">
-        <v>0.495765</v>
+        <v>0.498333806666667</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -571,10 +571,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>36.3644444444445</v>
+        <v>36.2533333333333</v>
       </c>
       <c r="C13">
-        <v>0.492132148148148</v>
+        <v>0.4915952</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -582,10 +582,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>92.7677777777778</v>
+        <v>92.3036666666667</v>
       </c>
       <c r="C14">
-        <v>0.785433851851852</v>
+        <v>0.784581166666667</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -593,10 +593,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>89.8422222222222</v>
+        <v>89.988</v>
       </c>
       <c r="C15">
-        <v>0.772643111111111</v>
+        <v>0.7738968</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -604,10 +604,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>91.8333333333333</v>
+        <v>92.5273333333333</v>
       </c>
       <c r="C16">
-        <v>0.783644444444444</v>
+        <v>0.784631786666667</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -615,10 +615,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>175.05</v>
+        <v>176.261666666667</v>
       </c>
       <c r="C17">
-        <v>1.079475</v>
+        <v>1.08224663333333</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -626,10 +626,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>175.996666666667</v>
+        <v>175.535666666667</v>
       </c>
       <c r="C18">
-        <v>1.08531277777778</v>
+        <v>1.08481042</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -637,10 +637,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>174.068888888889</v>
+        <v>173.762</v>
       </c>
       <c r="C19">
-        <v>1.07922711111111</v>
+        <v>1.0773244</v>
       </c>
     </row>
   </sheetData>
